--- a/docs/gantt_chart.xlsx
+++ b/docs/gantt_chart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tappei_Maekawa\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tappei_Maekawa\PythonDoc\basic-design-document\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713068AA-8796-44D6-8EE3-567C106A0382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1393A415-1287-4671-94F7-CB3F8AD3F559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="52">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -152,20 +152,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>写真表示</t>
-    <rPh sb="0" eb="4">
-      <t>シャシンヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レシピ表示</t>
-    <rPh sb="3" eb="5">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>不足食材表示</t>
     <rPh sb="0" eb="4">
       <t>フソクショクザイ</t>
@@ -176,78 +162,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>存在食材表示</t>
-    <rPh sb="0" eb="2">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="2" eb="6">
-      <t>ショクザイヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カロリー・歩数表示</t>
-    <rPh sb="5" eb="7">
-      <t>ホスウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>B1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>バックエンド</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>写真取得</t>
-    <rPh sb="0" eb="4">
-      <t>シャシンシュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レシピ取得</t>
-    <rPh sb="3" eb="5">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>不足食材取得</t>
-    <rPh sb="0" eb="4">
-      <t>フソクショクザイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>存在食材取得</t>
-    <rPh sb="0" eb="2">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショクザイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カロリー・歩数取得</t>
-    <rPh sb="5" eb="7">
-      <t>ホスウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シュトク</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -262,136 +181,215 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>端末（スマホ）</t>
+    <t>5/9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5/16</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5/17</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5/21</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5/24</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5/28</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5/20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5/23</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5/27</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5/30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カロリー消費バー表示</t>
+    <rPh sb="4" eb="6">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>歩数入力箇所表示</t>
+    <rPh sb="0" eb="4">
+      <t>ホスウニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ表示機能</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ保存機能</t>
+    <rPh sb="3" eb="7">
+      <t>ホゾンキノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レシピ画像表示</t>
+    <rPh sb="3" eb="5">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用食材表示</t>
+    <rPh sb="0" eb="4">
+      <t>シヨウショクザイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レシピ画像保存</t>
+    <rPh sb="3" eb="5">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用食材保存</t>
+    <rPh sb="0" eb="4">
+      <t>シヨウショクザイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>庫内食材保存</t>
+    <rPh sb="0" eb="4">
+      <t>コナイショクザイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レシピカロリー保存</t>
+    <rPh sb="7" eb="9">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>累計歩数保存</t>
+    <rPh sb="0" eb="6">
+      <t>ルイケイホスウホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>歩数入力機能</t>
+    <rPh sb="0" eb="6">
+      <t>ホスウニュウリョクキノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>累計歩数計算</t>
     <rPh sb="0" eb="2">
-      <t>タンマツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>連携アプリ</t>
+      <t>ルイケイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホスウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カロリー計算機能</t>
+    <rPh sb="4" eb="8">
+      <t>ケイサンキノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カロリー計算</t>
+    <rPh sb="4" eb="6">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田中</t>
     <rPh sb="0" eb="2">
-      <t>レンケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>歩数計測</t>
+      <t>タナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高原</t>
     <rPh sb="0" eb="2">
-      <t>ホスウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケイソク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>消費カロリー計測</t>
+      <t>タカハラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前川</t>
     <rPh sb="0" eb="2">
-      <t>ショウヒ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ケイソク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ送信</t>
-    <rPh sb="3" eb="5">
-      <t>ソウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データベース</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データベース作成</t>
-    <rPh sb="6" eb="8">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データベース設計</t>
-    <rPh sb="6" eb="8">
-      <t>セッケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/9</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/16</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/17</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/21</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/24</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/28</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/20</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/23</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/27</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/30</t>
+      <t>マエカワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小出来</t>
+    <rPh sb="0" eb="3">
+      <t>コデキ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>荒木</t>
     <rPh sb="0" eb="2">
       <t>アラキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>田中</t>
-    <rPh sb="0" eb="2">
-      <t>タナカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>高原</t>
-    <rPh sb="0" eb="2">
-      <t>タカハラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>小出来</t>
-    <rPh sb="0" eb="3">
-      <t>コデキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>前川</t>
-    <rPh sb="0" eb="2">
-      <t>マエカワ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -664,6 +662,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -716,9 +717,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1047,70 +1045,13 @@
       <xdr:col>44</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
       <xdr:colOff>213360</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>205740</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A79C201-4FF1-4CAC-AD87-05BB357C50C6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="13624560" y="2286000"/>
-          <a:ext cx="914400" cy="15240"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="76200">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>8</xdr:row>
       <xdr:rowOff>182880</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1125,8 +1066,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14554200" y="2613660"/>
-          <a:ext cx="731520" cy="7620"/>
+          <a:off x="15201900" y="2270760"/>
+          <a:ext cx="914400" cy="7620"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1557,23 +1498,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>182880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="55" name="直線矢印コネクタ 54">
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1081276D-0DD6-4049-8F3B-59F07A910B9F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26743AE5-7C6A-4D78-8F30-00D70EA34310}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1581,122 +1522,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13616940" y="5295900"/>
-          <a:ext cx="1699260" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="76200">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="57" name="直線矢印コネクタ 56">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01D9B4EF-8C48-470D-A083-B0486B21BD1C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18249900" y="5623560"/>
-          <a:ext cx="1851660" cy="22860"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="76200">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="59" name="直線矢印コネクタ 58">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1289D7E-9CF1-4571-A6D2-5663B79A3F1A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11971020" y="5966460"/>
-          <a:ext cx="1630680" cy="7620"/>
+          <a:off x="16131540" y="2613660"/>
+          <a:ext cx="708660" cy="7620"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1994,8 +1821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930D798E-5928-4F25-88B1-D0C5BE2943EE}">
   <dimension ref="A1:BU31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI9" sqref="AI9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18"/>
@@ -2015,91 +1842,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="32.25" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
       <c r="D1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="21"/>
+      <c r="E1" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="22"/>
       <c r="G1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="P1" s="22" t="s">
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="P1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="25">
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="26">
         <v>45413</v>
       </c>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="26"/>
-      <c r="AJ1" s="26"/>
-      <c r="AK1" s="26"/>
-      <c r="AL1" s="26"/>
-      <c r="AM1" s="26"/>
-      <c r="AN1" s="26"/>
-      <c r="AO1" s="26"/>
-      <c r="AP1" s="26"/>
-      <c r="AQ1" s="26"/>
-      <c r="AR1" s="26"/>
-      <c r="AS1" s="26"/>
-      <c r="AT1" s="26"/>
-      <c r="AU1" s="26"/>
-      <c r="AV1" s="26"/>
-      <c r="AW1" s="26"/>
-      <c r="AX1" s="26"/>
-      <c r="AY1" s="26"/>
-      <c r="AZ1" s="27"/>
-      <c r="BA1" s="25">
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="27"/>
+      <c r="AK1" s="27"/>
+      <c r="AL1" s="27"/>
+      <c r="AM1" s="27"/>
+      <c r="AN1" s="27"/>
+      <c r="AO1" s="27"/>
+      <c r="AP1" s="27"/>
+      <c r="AQ1" s="27"/>
+      <c r="AR1" s="27"/>
+      <c r="AS1" s="27"/>
+      <c r="AT1" s="27"/>
+      <c r="AU1" s="27"/>
+      <c r="AV1" s="27"/>
+      <c r="AW1" s="27"/>
+      <c r="AX1" s="27"/>
+      <c r="AY1" s="27"/>
+      <c r="AZ1" s="28"/>
+      <c r="BA1" s="26">
         <v>45444</v>
       </c>
-      <c r="BB1" s="26"/>
-      <c r="BC1" s="26"/>
-      <c r="BD1" s="26"/>
-      <c r="BE1" s="26"/>
-      <c r="BF1" s="26"/>
-      <c r="BG1" s="26"/>
-      <c r="BH1" s="26"/>
-      <c r="BI1" s="26"/>
-      <c r="BJ1" s="26"/>
-      <c r="BK1" s="26"/>
-      <c r="BL1" s="26"/>
-      <c r="BM1" s="26"/>
-      <c r="BN1" s="26"/>
-      <c r="BO1" s="26"/>
-      <c r="BP1" s="26"/>
-      <c r="BQ1" s="26"/>
-      <c r="BR1" s="26"/>
-      <c r="BS1" s="26"/>
-      <c r="BT1" s="26"/>
+      <c r="BB1" s="27"/>
+      <c r="BC1" s="27"/>
+      <c r="BD1" s="27"/>
+      <c r="BE1" s="27"/>
+      <c r="BF1" s="27"/>
+      <c r="BG1" s="27"/>
+      <c r="BH1" s="27"/>
+      <c r="BI1" s="27"/>
+      <c r="BJ1" s="27"/>
+      <c r="BK1" s="27"/>
+      <c r="BL1" s="27"/>
+      <c r="BM1" s="27"/>
+      <c r="BN1" s="27"/>
+      <c r="BO1" s="27"/>
+      <c r="BP1" s="27"/>
+      <c r="BQ1" s="27"/>
+      <c r="BR1" s="27"/>
+      <c r="BS1" s="27"/>
+      <c r="BT1" s="27"/>
     </row>
     <row r="2" spans="1:73">
       <c r="P2" s="5">
@@ -2275,37 +2102,37 @@
       </c>
     </row>
     <row r="3" spans="1:73">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="28" t="s">
+      <c r="F3" s="19"/>
+      <c r="G3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="18" t="s">
+      <c r="H3" s="31"/>
+      <c r="I3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="28" t="s">
+      <c r="L3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="31"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="8"/>
@@ -2384,15 +2211,15 @@
       <c r="F4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="31"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="33"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="34"/>
       <c r="P4" s="2" t="s">
         <v>10</v>
       </c>
@@ -2482,29 +2309,31 @@
     <row r="5" spans="1:73" s="6" customFormat="1" ht="26.4" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="17"/>
-      <c r="I5" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="34" t="s">
-        <v>40</v>
+      <c r="F5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="I5" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>23</v>
       </c>
       <c r="K5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -2574,21 +2403,21 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="34" t="s">
-        <v>45</v>
+      <c r="G6" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="18"/>
+      <c r="I6" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>28</v>
       </c>
       <c r="K6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -2658,21 +2487,21 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" s="34" t="s">
-        <v>46</v>
+      <c r="G7" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="18"/>
+      <c r="I7" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>29</v>
       </c>
       <c r="K7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -2742,21 +2571,21 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" s="34" t="s">
+      <c r="G8" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="18"/>
+      <c r="I8" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -2826,21 +2655,21 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="34" t="s">
-        <v>48</v>
+      <c r="G9" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>31</v>
       </c>
       <c r="K9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -2908,25 +2737,27 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="34" t="s">
-        <v>40</v>
-      </c>
       <c r="K10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="3"/>
@@ -2996,21 +2827,21 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11" s="34" t="s">
-        <v>45</v>
+      <c r="G11" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="18"/>
+      <c r="I11" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>28</v>
       </c>
       <c r="K11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="3"/>
@@ -3080,21 +2911,21 @@
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="J12" s="34" t="s">
-        <v>46</v>
+      <c r="G12" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="18"/>
+      <c r="I12" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>29</v>
       </c>
       <c r="K12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="3"/>
@@ -3164,21 +2995,21 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="J13" s="34" t="s">
-        <v>47</v>
+      <c r="G13" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="18"/>
+      <c r="I13" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>30</v>
       </c>
       <c r="K13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L13" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="3"/>
@@ -3248,21 +3079,21 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="17"/>
-      <c r="I14" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="J14" s="34" t="s">
+      <c r="G14" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="18"/>
+      <c r="I14" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="L14" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
@@ -3327,31 +3158,27 @@
     </row>
     <row r="15" spans="1:73" s="6" customFormat="1" ht="26.4" customHeight="1">
       <c r="A15" s="7"/>
-      <c r="B15" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="B15" s="7"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="J15" s="34" t="s">
-        <v>40</v>
+      <c r="F15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="18"/>
+      <c r="I15" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>23</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>53</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="L15" s="2"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="2"/>
@@ -3419,23 +3246,23 @@
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="17"/>
-      <c r="I16" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="J16" s="34" t="s">
+      <c r="F16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="17" t="s">
         <v>46</v>
       </c>
+      <c r="H16" s="18"/>
+      <c r="I16" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>29</v>
+      </c>
       <c r="K16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>53</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="L16" s="2"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="2"/>
@@ -3504,22 +3331,12 @@
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="J17" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="G17" s="17"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="2"/>
@@ -3583,26 +3400,16 @@
     </row>
     <row r="18" spans="1:72" s="6" customFormat="1" ht="26.4" customHeight="1">
       <c r="A18" s="7"/>
-      <c r="B18" s="7" t="s">
-        <v>36</v>
-      </c>
+      <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="17"/>
-      <c r="I18" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="J18" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="G18" s="17"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3672,19 +3479,11 @@
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="H19" s="17"/>
-      <c r="I19" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="J19" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="G19" s="17"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3754,8 +3553,8 @@
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="18"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="2"/>
@@ -3828,8 +3627,8 @@
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="18"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="2"/>
@@ -3902,8 +3701,8 @@
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="18"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="2"/>
@@ -3976,8 +3775,8 @@
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="18"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="2"/>
@@ -4050,8 +3849,8 @@
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="18"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="2"/>
@@ -4124,8 +3923,8 @@
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="18"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="2"/>
@@ -4198,8 +3997,8 @@
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="18"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="2"/>
@@ -4272,8 +4071,8 @@
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="18"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -4346,8 +4145,8 @@
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="18"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -4420,8 +4219,8 @@
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="18"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -4494,8 +4293,8 @@
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="18"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -4568,8 +4367,8 @@
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="18"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
@@ -4643,6 +4442,10 @@
     <mergeCell ref="L3:O4"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G3:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="K3:K4"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="H1:N1"/>
     <mergeCell ref="A3:B3"/>
@@ -4650,16 +4453,12 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
     <mergeCell ref="G8:H8"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="G9:H9"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="G16:H16"/>
